--- a/techcode/projects/Kubernetes/hellow-world/Kubectl sheetsheet.xlsx
+++ b/techcode/projects/Kubernetes/hellow-world/Kubectl sheetsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="418">
   <si>
     <t>kubectl Cheat Sheet</t>
   </si>
@@ -3893,6 +3893,84 @@
   </si>
   <si>
     <t>hello-world-hvgnw   1/1     Running   0          24m     10.44.0.1   minion1.bc.ca   &lt;none&gt;</t>
+  </si>
+  <si>
+    <t>NAME                READY   STATUS      RESTARTS   AGE   IP          NODE            NOMINATED NODE</t>
+  </si>
+  <si>
+    <t>hello-world         1/1     Running     0          16h   10.36.0.1   minion2.bc.ca   &lt;none&gt;</t>
+  </si>
+  <si>
+    <t>hello-world-4cg8v   1/1     Running     0          12h   10.36.0.2   minion2.bc.ca   &lt;none&gt;</t>
+  </si>
+  <si>
+    <t>hello-world-hvgnw   1/1     Running     0          12h   10.44.0.1   minion1.bc.ca   &lt;none&gt;</t>
+  </si>
+  <si>
+    <t>hellow-world2       0/1     Completed   0          79s   10.44.0.2   minion1.bc.ca   &lt;none&gt;</t>
+  </si>
+  <si>
+    <t>#M#cat env.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: "hellow-world2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  labels:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name: "helloApp"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  restartPolicy: Never</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - name: "hello"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: "ubuntu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ports:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - containerPort: 8020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    env:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - name:  "MESSAGE1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        value: "hello"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - name:  "MESSAGE2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        value: "Kubernetes"</t>
+  </si>
+  <si>
+    <t>hello-world-4cg8v   1/1     Running     0          13h   10.36.0.2   minion2.bc.ca   &lt;none&gt;</t>
+  </si>
+  <si>
+    <t>hello-world-hvgnw   1/1     Running     0          13h   10.44.0.1   minion1.bc.ca   &lt;none&gt;</t>
+  </si>
+  <si>
+    <t>hellow-world2       0/1     Completed   0          67s   10.36.0.1   minion2.bc.ca   &lt;none&gt;</t>
+  </si>
+  <si>
+    <t>#M#kubectl logs hellow-world2</t>
+  </si>
+  <si>
+    <t>hello Kubernetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    command: ['/bin/echo']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    args: ["$(MESSAGE1) $(MESSAGE2)"]</t>
   </si>
 </sst>
 </file>
@@ -4254,6 +4332,58 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3133725</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="48348900"/>
+          <a:ext cx="3133725" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -4573,8 +4703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B305"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5869,6 +5999,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId38"/>
+  <drawing r:id="rId39"/>
 </worksheet>
 </file>
 
@@ -5879,7 +6010,7 @@
   </sheetPr>
   <dimension ref="A1:A263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+    <sheetView topLeftCell="A247" workbookViewId="0">
       <selection activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
@@ -7092,12 +7223,295 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:A63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="182.85546875" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="28" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="28" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="28" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="28" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="28" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="28" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="28" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="28" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="29" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="28" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="28" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="28" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="28" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="28" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>